--- a/gd/任务系统/任务系统设计.xlsx
+++ b/gd/任务系统/任务系统设计.xlsx
@@ -12,12 +12,15 @@
     <sheet name="基础逻辑" sheetId="2" r:id="rId3"/>
     <sheet name="任务类型" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="追踪栏内容显示格式">UI逻辑!$C$118:$I$134</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="359">
   <si>
     <t>主线任务</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -127,10 +130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>当前任务不可以放弃，弹出无法放弃任务的提示信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>提示内容为： 当前任务无法被放弃！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -143,10 +142,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>点击后自动寻路至该NPC同时出发交互操作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>点击后可以接取该任务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -211,15 +206,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>点击任务可以进行寻路操作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>如点击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>则可以寻路至“二锁”同时进行交互</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1011,6 +998,460 @@
   </si>
   <si>
     <t>服务于任务内容，指引玩家进行游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认选择第一个类型的第一个任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后自动寻路至该NPC同时触发交互操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前任务为寻人、则寻路至目标NPC</t>
+  </si>
+  <si>
+    <t>当前任务为通关副本，则寻路至副本入口并打开副本入口界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务追踪相关UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务界面相关UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮样式示意</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次进入村落中，任务追踪界面恢复默认状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务完成相关UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于描述任务内容的具体操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 找到XXX，通关XXX副本等等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在任务追踪界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在任务界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务追踪中的任务顺序与任务界面中任务列表顺序保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当任务出现时，即时显示在任务追踪界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当任务完成后，即时从任务追踪界面消失</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有某个宠物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于列抓任务的接取条件（具体待定）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列传任务在宠物界面接取（待具体设计）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此类道具获得后直接进入包裹的任务分页中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家到达可以使用该道具的地点时，自动弹出道具使用界面（具体见道具系统设计）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务每天0点刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如刷新时有未完成的任务，则该任务记为当前的第一个日常任务（即需要判断该任务的交付时间是否在0点之前）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家夸等级段后，不会影响日常任务的进度，会在刷出下一个任务的时候从对应等级段的任务库中随机出任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该部分内容等待制作成就系统时统一考虑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务的奖励不根据单个任务配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据每个等级段固定分配一定的奖励（主要指经验和金钱），平分10份后*固定浮动值作为每个任务的奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如21-25等级段日常任务总经验10000、总金钱10000，则单个任务的奖励则为 10000/10*[0.9,1.1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当前任务不可以放弃，弹出无法放弃任务的提示信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（提示信息样式见IM系统设计）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务交付后弹出任务完成的提示UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式示意如下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为  完成任务！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示2秒后淡出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示格式为  文字或者图标 +数字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出2秒后变为绿色粒子飞向经验条位置，同时经验条播放增长动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示格式为  文字或者图标 +数字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字最多显示9位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出2秒后变为金币样式飞向包裹位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如获得为金券则变更为金券样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为获得的道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每行最多显示8个道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多显示2行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标左对齐显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出2秒后道具图标直接飞向包裹位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当前背包位置充足，则无任何提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当前背包位置不充足，则弹出提示信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息为：您的包裹已满，其余奖励已发送至邮箱，请及时查看！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该UI界面显示在其他界面上层，背景为半透明灰黑色遮罩样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有部分弹出均有动画样式表示（具体效果等待美术同学设计）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮罩部分弹出2秒后淡出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善任务奖励部分设计，同时明确部分细节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver 0.5 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充任务追踪栏文本显示内容以及各式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>送物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关某个难度指定副本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等级提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带某个品级的伙伴数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带伙伴中最高等级达到X级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行竞技场X次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪栏内容显示格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击任务可以进行寻路操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>则可以寻路至“二锁”同时进行交互（响应范围为整个任务框）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮xxx找到yy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计完成N个X难度副本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮我寻找N个yy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把yy送给xxx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到 xxx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到yy寻找xxx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与xxx谈话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关N次X星副本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级提升至 xxx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有N个M品级伙伴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有N个等级达到M级的伙伴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行N次竞技场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X星通关副本 《yy》</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去xxx使用yy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮xxx去zzz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N为次数
+X为副本星级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N为数量
+M为品级名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N为数量
+M为等级数字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx为等级数字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容显示格式需求可配置，方便自行添加丰富任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx为NPC、yy为道具、N为数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx为NPC、yy为道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx为NPC、yy为道具、zzz为干什么事情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X为副本星级、yy为副本名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx为NPC、yy为地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理格式并提交qc审核</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1543,52 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1117,7 +1604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1125,8 +1612,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1134,8 +1710,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1168,11 +1745,77 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1195,13 +1838,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1211,7 +1854,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1295400" y="723900"/>
+          <a:off x="1295400" y="933450"/>
           <a:ext cx="6305550" cy="2819400"/>
           <a:chOff x="1295400" y="723900"/>
           <a:chExt cx="6305550" cy="2819400"/>
@@ -2273,13 +2916,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2333,13 +2976,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>148176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2386,7 +3029,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="334451"/>
@@ -2451,13 +3094,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2511,13 +3154,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>24351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2564,7 +3207,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -2629,13 +3272,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2689,13 +3332,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>205326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2742,7 +3385,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -2807,13 +3450,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2867,13 +3510,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>157701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2920,7 +3563,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -2985,13 +3628,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3045,13 +3688,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>5301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3098,7 +3741,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -3163,13 +3806,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3223,13 +3866,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>33876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3276,7 +3919,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1097736" cy="334451"/>
@@ -3355,13 +3998,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3431,13 +4074,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3507,13 +4150,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3590,13 +4233,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3655,13 +4298,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3800,7 +4443,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -3855,13 +4498,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3899,13 +4542,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142878</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3964,13 +4607,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114175</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>171381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4002,13 +4645,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4074,7 +4717,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="334451"/>
@@ -4119,6 +4762,1561 @@
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>任务追踪</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="等腰三角形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2009774" y="25079326"/>
+          <a:ext cx="280990" cy="128588"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>147640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="等腰三角形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1981199" y="26555701"/>
+          <a:ext cx="280990" cy="128588"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="圆角矩形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="28917900"/>
+          <a:ext cx="6076950" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218619</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>37110</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3048912" cy="825932"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276019" y="29374110"/>
+          <a:ext cx="3048912" cy="825932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="4400" b="1" cap="none" spc="50">
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="120000"/>
+                    <a:shade val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="1000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="53100">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="180000"/>
+                    <a:alpha val="30000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>完成任务！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212786</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>8535</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="946028" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2270186" y="30393285"/>
+          <a:ext cx="946028" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="120000"/>
+                    <a:shade val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="1000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="53100">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="180000"/>
+                    <a:alpha val="30000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>经验</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" cap="none" spc="50">
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="120000"/>
+                    <a:shade val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="1000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="53100">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="180000"/>
+                    <a:alpha val="30000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+999</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:satMod val="120000"/>
+                  <a:shade val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="1000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="53100">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="180000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3235</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>8535</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="946029" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3432235" y="30393285"/>
+          <a:ext cx="946029" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="120000"/>
+                    <a:shade val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="1000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="53100">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="180000"/>
+                    <a:alpha val="30000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>金币</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" cap="none" spc="50">
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="120000"/>
+                    <a:shade val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="1000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="53100">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="180000"/>
+                    <a:alpha val="30000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>+999</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:satMod val="120000"/>
+                  <a:shade val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="1000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="53100">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="180000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="30984825"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>道具图标</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="30984825"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>道具图标</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="30984825"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>道具图标</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="30984825"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>道具图标</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="30984825"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>道具图标</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="30975300"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>道具图标</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="29451300"/>
+          <a:ext cx="2895600" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>100552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直接箭头连接符 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="0"/>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3562350" y="29228002"/>
+          <a:ext cx="1266824" cy="851948"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829174" y="29060776"/>
+          <a:ext cx="748923" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>提示文字</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="30870525"/>
+          <a:ext cx="1543050" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>100552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5010150" y="31113952"/>
+          <a:ext cx="2305049" cy="13748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315199" y="30946726"/>
+          <a:ext cx="748923" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>金币提示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="30908625"/>
+          <a:ext cx="1543050" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167897</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>138652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直接箭头连接符 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="1"/>
+          <a:endCxn id="88" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="853697" y="31165800"/>
+          <a:ext cx="965578" cy="1662652"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104774" y="32661226"/>
+          <a:ext cx="748923" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>经验提示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="矩形 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="31556325"/>
+          <a:ext cx="3409950" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>110077</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直接箭头连接符 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="3"/>
+          <a:endCxn id="97" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="31842075"/>
+          <a:ext cx="1285874" cy="1167352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438899" y="32842201"/>
+          <a:ext cx="748923" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>道具提示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4415,10 +6613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4430,10 +6628,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4458,10 +6656,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -4486,10 +6684,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -4514,7 +6712,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="12"/>
@@ -4540,28 +6738,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>239</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -4581,77 +6779,154 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" s="13">
         <v>42094</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>311</v>
+      </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>246</v>
+        <v>312</v>
+      </c>
+      <c r="C13" s="13">
+        <v>42104</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>248</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>249</v>
+      <c r="G13" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>314</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="14"/>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L23" s="38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H13" location="追踪栏内容显示格式" display="补充任务追踪栏文本显示内容以及各式"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4660,317 +6935,966 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="17" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="2" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E54" s="1" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D56" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C61" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D62" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C63" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D64" s="1" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C65" s="5" t="s">
-        <v>68</v>
+      <c r="C65" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D66" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="3" t="s">
+      <c r="D68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
+      <c r="C74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="3"/>
-      <c r="C69" s="4" t="s">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="2" t="s">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C99" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="2" t="s">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="1" t="s">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C102" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="2" t="s">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C103" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C97" s="1" t="s">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C104" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C98" s="1" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C105" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C99" s="1" t="s">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C107" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C100" s="1" t="s">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C113" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C114" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C118" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C119" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="F119" s="35"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+    </row>
+    <row r="120" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D120" s="25">
+        <v>1</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="F120" s="31"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="I120" s="39"/>
+      <c r="J120" s="39"/>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C121" s="33"/>
+      <c r="D121" s="25">
+        <v>2</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="F121" s="31"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
+    </row>
+    <row r="122" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D122" s="25">
+        <v>1</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F122" s="31"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="I122" s="39"/>
+      <c r="J122" s="39"/>
+    </row>
+    <row r="123" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" s="25">
+        <v>1</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F123" s="31"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C124" s="33"/>
+      <c r="D124" s="25">
+        <v>2</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F124" s="31"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="39"/>
+    </row>
+    <row r="125" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D125" s="25">
+        <v>1</v>
+      </c>
+      <c r="E125" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="F125" s="31"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+    </row>
+    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C126" s="34"/>
+      <c r="D126" s="25">
+        <v>2</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="F126" s="31"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="39"/>
+    </row>
+    <row r="127" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C127" s="33"/>
+      <c r="D127" s="25">
+        <v>3</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="F127" s="31"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="39"/>
+    </row>
+    <row r="128" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="D128" s="25">
+        <v>1</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="F128" s="31"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="I128" s="39"/>
+      <c r="J128" s="39"/>
+    </row>
+    <row r="129" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D129" s="25">
+        <v>1</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="F129" s="31"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="I129" s="39"/>
+      <c r="J129" s="39"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C130" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D130" s="25">
+        <v>1</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="F130" s="31"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+    </row>
+    <row r="131" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D131" s="25">
+        <v>1</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="F131" s="31"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+    </row>
+    <row r="132" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" s="25">
+        <v>1</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="F132" s="31"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+    </row>
+    <row r="133" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="D133" s="25">
+        <v>1</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="F133" s="31"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C134" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C102" s="1" t="s">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C137" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C140" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D103" s="1" t="s">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C141" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D106" s="1" t="s">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C142" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C108" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C109" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="2" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="1" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="1" t="s">
-        <v>56</v>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" s="16"/>
+    </row>
+    <row r="157" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="16"/>
+      <c r="B157" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="16"/>
+      <c r="B158" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+    </row>
+    <row r="160" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
+    </row>
+    <row r="161" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+    </row>
+    <row r="162" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="16"/>
+      <c r="B162" s="16"/>
+    </row>
+    <row r="163" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+    </row>
+    <row r="164" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="16"/>
+      <c r="B164" s="16"/>
+    </row>
+    <row r="165" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+    </row>
+    <row r="166" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="16"/>
+      <c r="B166" s="16"/>
+    </row>
+    <row r="167" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+    </row>
+    <row r="168" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="16"/>
+      <c r="B168" s="16"/>
+    </row>
+    <row r="169" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="16"/>
+      <c r="B169" s="16"/>
+    </row>
+    <row r="170" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="16"/>
+      <c r="B170" s="16"/>
+    </row>
+    <row r="171" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+    </row>
+    <row r="172" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+    </row>
+    <row r="173" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+    </row>
+    <row r="174" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
+    </row>
+    <row r="175" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+    </row>
+    <row r="176" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
+    </row>
+    <row r="177" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="16"/>
+      <c r="B177" s="16"/>
+    </row>
+    <row r="178" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="16"/>
+      <c r="B178" s="16"/>
+    </row>
+    <row r="179" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="16"/>
+      <c r="B179" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="16"/>
+      <c r="B180" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="16"/>
+      <c r="B181" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="16"/>
+    </row>
+    <row r="183" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+    </row>
+    <row r="184" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="16"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+    </row>
+    <row r="188" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+    </row>
+    <row r="193" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+    </row>
+    <row r="199" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="16"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="16"/>
+      <c r="B205" s="16"/>
+    </row>
+    <row r="206" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="16"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="16"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="H120:J121"/>
+    <mergeCell ref="H123:J124"/>
+    <mergeCell ref="H125:J127"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="E128:G128"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4980,9 +7904,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121:I130"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4992,81 +7918,81 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5074,570 +8000,630 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="B33" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>117</v>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>121</v>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>120</v>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>119</v>
+      <c r="B38" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="C39" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="D45" s="6"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D55" s="1" t="s">
-        <v>134</v>
+      <c r="C53" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
-        <v>132</v>
+      <c r="A56" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D57" s="1" t="s">
-        <v>135</v>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
-        <v>136</v>
+      <c r="D59" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D61" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D63" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C68" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C71" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C73" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D74" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C78" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D79" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D81" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D83" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="2" t="s">
-        <v>149</v>
+      <c r="A85" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C86" s="1" t="s">
-        <v>156</v>
+      <c r="B86" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="1" t="s">
-        <v>157</v>
+      <c r="C87" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D88" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D92" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>61</v>
+      <c r="B94" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="2" t="s">
-        <v>161</v>
+      <c r="C95" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C96" s="1" t="s">
-        <v>162</v>
+      <c r="D96" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C97" s="1" t="s">
-        <v>163</v>
+      <c r="D97" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D98" s="1" t="s">
-        <v>164</v>
+      <c r="C98" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D99" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D100" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>62</v>
+      <c r="C100" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="2" t="s">
-        <v>171</v>
+      <c r="A103" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C104" s="1" t="s">
-        <v>177</v>
+      <c r="B104" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C105" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="2" t="s">
-        <v>184</v>
+      <c r="C106" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C107" s="1" t="s">
-        <v>185</v>
+      <c r="D107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C110" s="1" t="s">
-        <v>189</v>
+      <c r="D109" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C113" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C116" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C119" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C122" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C128" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="2" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="1" t="s">
-        <v>191</v>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="17" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5653,27 +8639,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5681,12 +8667,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5696,27 +8682,27 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C17" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5724,12 +8710,12 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5739,37 +8725,37 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C25" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C30" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C31" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5777,12 +8763,12 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,136 +8778,331 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C40" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D45" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C52" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C55" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C62" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C63" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C64" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="18"/>
+      <c r="B67" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="21" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="6" t="s">
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="21" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="6" t="s">
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="21" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="6" t="s">
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="21" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="6" t="s">
-        <v>219</v>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/gd/任务系统/任务系统设计.xlsx
+++ b/gd/任务系统/任务系统设计.xlsx
@@ -13,6 +13,7 @@
     <sheet name="任务类型" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="用于列传任务的接取条件_具体待定">基础逻辑!$F$69</definedName>
     <definedName name="追踪栏内容显示格式">UI逻辑!$E$118:$K$134</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="449">
   <si>
     <t>主线任务</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1053,10 +1054,6 @@
   </si>
   <si>
     <t>拥有某个宠物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于列抓任务的接取条件（具体待定）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1830,6 +1827,26 @@
   </si>
   <si>
     <t>点击后直接打开对应难度的副本所在章节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于列传任务的接取条件（具体待定）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改错别字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2161,24 +2178,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2191,34 +2190,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2239,8 +2211,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8082,7 +8099,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8269,7 +8286,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="11">
         <v>42104</v>
@@ -8278,14 +8295,14 @@
         <v>241</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="7" t="s">
         <v>242</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -8294,7 +8311,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="11">
         <v>42104</v>
@@ -8308,7 +8325,7 @@
         <v>242</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -8317,13 +8334,13 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" s="11">
         <v>42104</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="8"/>
@@ -8331,7 +8348,7 @@
         <v>242</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -8340,21 +8357,21 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C15" s="11">
         <v>42108</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -8362,13 +8379,23 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="11">
+        <v>42109</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>446</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>448</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="12"/>
@@ -8431,8 +8458,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H13" location="追踪栏内容显示格式" display="补充任务追踪栏文本显示内容以及各式"/>
+    <hyperlink ref="H16" location="用于列传任务的接取条件_具体待定" display="修改错别字"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8440,8 +8469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8449,7 +8478,7 @@
     <col min="1" max="1" width="32.125" style="25" customWidth="1"/>
     <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="10" width="9" style="40"/>
+    <col min="5" max="10" width="9" style="34"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8474,57 +8503,57 @@
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="34" t="s">
         <v>243</v>
       </c>
     </row>
@@ -8534,12 +8563,12 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="34" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8549,27 +8578,27 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E44" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="15"/>
       <c r="D46" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E46" s="15"/>
     </row>
@@ -8577,28 +8606,28 @@
       <c r="B47" s="15"/>
       <c r="D47" s="14"/>
       <c r="E47" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="15"/>
       <c r="D48" s="14"/>
       <c r="E48" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49" s="15"/>
       <c r="D49" s="14"/>
       <c r="E49" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" s="15"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -8610,7 +8639,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8620,53 +8649,53 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="40" t="s">
+      <c r="F55" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="G62" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="G62" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="G63" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G63" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="G65" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="G65" s="34" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8676,7 +8705,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8686,7 +8715,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="34" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8696,7 +8725,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F72" s="40" t="s">
+      <c r="F72" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8706,22 +8735,22 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F74" s="40" t="s">
+      <c r="F74" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F75" s="40" t="s">
+      <c r="F75" s="34" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G76" s="40" t="s">
+      <c r="G76" s="34" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G77" s="40" t="s">
+      <c r="G77" s="34" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8730,40 +8759,40 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="D79" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D79" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="39"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B80" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="D80" s="32"/>
+      <c r="E80" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
+      <c r="B81" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D81" s="30"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D82" s="36"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C84" s="3" t="s">
@@ -8791,7 +8820,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8801,348 +8830,348 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E108" s="40" t="s">
+      <c r="E108" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E109" s="40" t="s">
+      <c r="E109" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>401</v>
+        <v>373</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E113" s="40" t="s">
+      <c r="E113" s="34" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E114" s="40" t="s">
+      <c r="E114" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E118" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B119" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E119" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="E119" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="F119" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="G119" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="F119" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="G119" s="44" t="s">
+      <c r="H119" s="52"/>
+      <c r="I119" s="53"/>
+      <c r="J119" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="H119" s="45"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="K119" s="31"/>
-      <c r="L119" s="31"/>
+      <c r="K119" s="57"/>
+      <c r="L119" s="57"/>
     </row>
     <row r="120" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E120" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="F120" s="43">
+        <v>340</v>
+      </c>
+      <c r="E120" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="F120" s="37">
         <v>1</v>
       </c>
       <c r="G120" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H120" s="49"/>
       <c r="I120" s="50"/>
-      <c r="J120" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="K120" s="30"/>
-      <c r="L120" s="30"/>
+      <c r="J120" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="K120" s="54"/>
+      <c r="L120" s="54"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B121" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="E121" s="51"/>
-      <c r="F121" s="43">
+        <v>374</v>
+      </c>
+      <c r="E121" s="46"/>
+      <c r="F121" s="37">
         <v>2</v>
       </c>
       <c r="G121" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H121" s="49"/>
       <c r="I121" s="50"/>
-      <c r="J121" s="30"/>
-      <c r="K121" s="30"/>
-      <c r="L121" s="30"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
     </row>
     <row r="122" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="27"/>
-      <c r="E122" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="F122" s="43">
+      <c r="E122" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F122" s="37">
         <v>1</v>
       </c>
       <c r="G122" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H122" s="49"/>
       <c r="I122" s="50"/>
-      <c r="J122" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="K122" s="30"/>
-      <c r="L122" s="30"/>
+      <c r="J122" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="K122" s="54"/>
+      <c r="L122" s="54"/>
     </row>
     <row r="123" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="F123" s="43">
+      <c r="E123" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F123" s="37">
         <v>1</v>
       </c>
       <c r="G123" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H123" s="49"/>
       <c r="I123" s="50"/>
-      <c r="J123" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="K123" s="30"/>
-      <c r="L123" s="30"/>
+      <c r="J123" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="K123" s="54"/>
+      <c r="L123" s="54"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B124" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E124" s="51"/>
-      <c r="F124" s="43">
+        <v>339</v>
+      </c>
+      <c r="E124" s="46"/>
+      <c r="F124" s="37">
         <v>2</v>
       </c>
       <c r="G124" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H124" s="49"/>
       <c r="I124" s="50"/>
-      <c r="J124" s="30"/>
-      <c r="K124" s="30"/>
-      <c r="L124" s="30"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
+      <c r="L124" s="54"/>
     </row>
     <row r="125" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="E125" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="F125" s="43">
+        <v>376</v>
+      </c>
+      <c r="E125" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="F125" s="37">
         <v>1</v>
       </c>
       <c r="G125" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H125" s="49"/>
       <c r="I125" s="50"/>
-      <c r="J125" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="K125" s="30"/>
-      <c r="L125" s="30"/>
+      <c r="J125" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="K125" s="54"/>
+      <c r="L125" s="54"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E126" s="53"/>
-      <c r="F126" s="43">
+      <c r="E126" s="47"/>
+      <c r="F126" s="37">
         <v>2</v>
       </c>
       <c r="G126" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H126" s="49"/>
       <c r="I126" s="50"/>
-      <c r="J126" s="30"/>
-      <c r="K126" s="30"/>
-      <c r="L126" s="30"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="54"/>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E127" s="51"/>
-      <c r="F127" s="43">
+      <c r="E127" s="46"/>
+      <c r="F127" s="37">
         <v>3</v>
       </c>
       <c r="G127" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H127" s="49"/>
       <c r="I127" s="50"/>
-      <c r="J127" s="30"/>
-      <c r="K127" s="30"/>
-      <c r="L127" s="30"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
+      <c r="L127" s="54"/>
     </row>
     <row r="128" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E128" s="54" t="s">
-        <v>403</v>
-      </c>
-      <c r="F128" s="43">
+        <v>341</v>
+      </c>
+      <c r="E128" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="F128" s="37">
         <v>1</v>
       </c>
       <c r="G128" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H128" s="49"/>
       <c r="I128" s="50"/>
-      <c r="J128" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="K128" s="33"/>
-      <c r="L128" s="34"/>
+      <c r="J128" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="K128" s="59"/>
+      <c r="L128" s="60"/>
     </row>
     <row r="129" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="E129" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="F129" s="43">
+        <v>377</v>
+      </c>
+      <c r="E129" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="F129" s="37">
         <v>1</v>
       </c>
       <c r="G129" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H129" s="49"/>
       <c r="I129" s="50"/>
-      <c r="J129" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="K129" s="30"/>
-      <c r="L129" s="30"/>
+      <c r="J129" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="K129" s="54"/>
+      <c r="L129" s="54"/>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E130" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="F130" s="43">
+      <c r="E130" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="F130" s="37">
         <v>1</v>
       </c>
       <c r="G130" s="48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H130" s="49"/>
       <c r="I130" s="50"/>
-      <c r="J130" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="K130" s="35"/>
-      <c r="L130" s="35"/>
+      <c r="J130" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="K130" s="55"/>
+      <c r="L130" s="55"/>
     </row>
     <row r="131" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E131" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F131" s="56">
+        <v>342</v>
+      </c>
+      <c r="E131" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="F131" s="41">
         <v>1</v>
       </c>
-      <c r="G131" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="H131" s="58"/>
-      <c r="I131" s="59"/>
-      <c r="J131" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="K131" s="60"/>
-      <c r="L131" s="60"/>
+      <c r="G131" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="44"/>
+      <c r="J131" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="K131" s="56"/>
+      <c r="L131" s="56"/>
     </row>
     <row r="132" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="E132" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="E132" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="F132" s="41">
+        <v>1</v>
+      </c>
+      <c r="G132" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="44"/>
+      <c r="J132" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="K132" s="56"/>
+      <c r="L132" s="56"/>
+    </row>
+    <row r="133" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="F132" s="56">
+      <c r="F133" s="41">
         <v>1</v>
       </c>
-      <c r="G132" s="57" t="s">
+      <c r="G133" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="H132" s="58"/>
-      <c r="I132" s="59"/>
-      <c r="J132" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="K132" s="60"/>
-      <c r="L132" s="60"/>
-    </row>
-    <row r="133" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E133" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="F133" s="56">
-        <v>1</v>
-      </c>
-      <c r="G133" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="H133" s="58"/>
-      <c r="I133" s="59"/>
-      <c r="J133" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="K133" s="60"/>
-      <c r="L133" s="60"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="K133" s="56"/>
+      <c r="L133" s="56"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E134" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E136" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E137" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E138" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -9150,7 +9179,7 @@
     <row r="139" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E139" s="15"/>
       <c r="F139" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G139" s="15"/>
     </row>
@@ -9158,21 +9187,21 @@
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
       <c r="G140" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
       <c r="G141" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.3">
@@ -9183,7 +9212,7 @@
     <row r="144" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E144" s="15"/>
       <c r="F144" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G144" s="15"/>
     </row>
@@ -9191,7 +9220,7 @@
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
       <c r="G145" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -9202,7 +9231,7 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E147" s="15"/>
       <c r="F147" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G147" s="15"/>
     </row>
@@ -9210,7 +9239,7 @@
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
       <c r="G148" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -9221,7 +9250,7 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E150" s="15"/>
       <c r="F150" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G150" s="15"/>
     </row>
@@ -9229,7 +9258,7 @@
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
       <c r="G151" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -9240,7 +9269,7 @@
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E153" s="15"/>
       <c r="F153" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G153" s="15"/>
     </row>
@@ -9248,7 +9277,7 @@
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
       <c r="G154" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -9257,7 +9286,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E157" s="40" t="s">
+      <c r="E157" s="34" t="s">
         <v>250</v>
       </c>
     </row>
@@ -9269,19 +9298,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="26"/>
-      <c r="E160" s="40" t="s">
+      <c r="E160" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="26"/>
-      <c r="E161" s="40" t="s">
+      <c r="E161" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="26"/>
-      <c r="E162" s="40" t="s">
+      <c r="E162" s="34" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9296,7 +9325,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="26"/>
-      <c r="E165" s="40" t="s">
+      <c r="E165" s="34" t="s">
         <v>250</v>
       </c>
     </row>
@@ -9308,13 +9337,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="26"/>
-      <c r="E168" s="40" t="s">
+      <c r="E168" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="26"/>
-      <c r="E169" s="40" t="s">
+      <c r="E169" s="34" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9329,23 +9358,23 @@
     </row>
     <row r="172" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="E172" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="E172" s="34" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="E173" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="E173" s="34" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="26"/>
-      <c r="E174" s="40" t="s">
+      <c r="E174" s="34" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9358,653 +9387,653 @@
         <v>252</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="34"/>
+      <c r="G176" s="34"/>
+      <c r="H176" s="34"/>
+      <c r="I176" s="34"/>
+      <c r="J176" s="34"/>
     </row>
     <row r="177" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="26"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E177" s="40"/>
-      <c r="F177" s="40"/>
-      <c r="G177" s="40"/>
-      <c r="H177" s="40"/>
-      <c r="I177" s="40"/>
-      <c r="J177" s="40"/>
+        <v>403</v>
+      </c>
+      <c r="E177" s="34"/>
+      <c r="F177" s="34"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="34"/>
+      <c r="I177" s="34"/>
+      <c r="J177" s="34"/>
     </row>
     <row r="178" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="26"/>
       <c r="B178" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E178" s="40"/>
-      <c r="F178" s="40"/>
-      <c r="G178" s="40"/>
-      <c r="H178" s="40"/>
-      <c r="I178" s="40"/>
-      <c r="J178" s="40"/>
+        <v>274</v>
+      </c>
+      <c r="E178" s="34"/>
+      <c r="F178" s="34"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="34"/>
+      <c r="I178" s="34"/>
+      <c r="J178" s="34"/>
     </row>
     <row r="179" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="26"/>
       <c r="B179" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="40"/>
-      <c r="F179" s="40"/>
-      <c r="G179" s="40"/>
-      <c r="H179" s="40"/>
-      <c r="I179" s="40"/>
-      <c r="J179" s="40"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="34"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="34"/>
+      <c r="I179" s="34"/>
+      <c r="J179" s="34"/>
     </row>
     <row r="180" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="26"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="40"/>
-      <c r="F180" s="40"/>
-      <c r="G180" s="40"/>
-      <c r="H180" s="40"/>
-      <c r="I180" s="40"/>
-      <c r="J180" s="40"/>
+      <c r="E180" s="34"/>
+      <c r="F180" s="34"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="34"/>
+      <c r="I180" s="34"/>
+      <c r="J180" s="34"/>
     </row>
     <row r="181" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="26"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="40"/>
-      <c r="F181" s="40"/>
-      <c r="G181" s="40"/>
-      <c r="H181" s="40"/>
-      <c r="I181" s="40"/>
-      <c r="J181" s="40"/>
+      <c r="E181" s="34"/>
+      <c r="F181" s="34"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="34"/>
+      <c r="I181" s="34"/>
+      <c r="J181" s="34"/>
     </row>
     <row r="182" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="26"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="40"/>
-      <c r="F182" s="40"/>
-      <c r="G182" s="40"/>
-      <c r="H182" s="40"/>
-      <c r="I182" s="40"/>
-      <c r="J182" s="40"/>
+      <c r="E182" s="34"/>
+      <c r="F182" s="34"/>
+      <c r="G182" s="34"/>
+      <c r="H182" s="34"/>
+      <c r="I182" s="34"/>
+      <c r="J182" s="34"/>
     </row>
     <row r="183" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="26"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="40"/>
-      <c r="F183" s="40"/>
-      <c r="G183" s="40"/>
-      <c r="H183" s="40"/>
-      <c r="I183" s="40"/>
-      <c r="J183" s="40"/>
+      <c r="E183" s="34"/>
+      <c r="F183" s="34"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="34"/>
+      <c r="I183" s="34"/>
+      <c r="J183" s="34"/>
     </row>
     <row r="184" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="26"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="40"/>
-      <c r="F184" s="40"/>
-      <c r="G184" s="40"/>
-      <c r="H184" s="40"/>
-      <c r="I184" s="40"/>
-      <c r="J184" s="40"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="34"/>
+      <c r="I184" s="34"/>
+      <c r="J184" s="34"/>
     </row>
     <row r="185" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="26"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="40"/>
-      <c r="F185" s="40"/>
-      <c r="G185" s="40"/>
-      <c r="H185" s="40"/>
-      <c r="I185" s="40"/>
-      <c r="J185" s="40"/>
+      <c r="E185" s="34"/>
+      <c r="F185" s="34"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="34"/>
+      <c r="I185" s="34"/>
+      <c r="J185" s="34"/>
     </row>
     <row r="186" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="26"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="40"/>
-      <c r="F186" s="40"/>
-      <c r="G186" s="40"/>
-      <c r="H186" s="40"/>
-      <c r="I186" s="40"/>
-      <c r="J186" s="40"/>
+      <c r="E186" s="34"/>
+      <c r="F186" s="34"/>
+      <c r="G186" s="34"/>
+      <c r="H186" s="34"/>
+      <c r="I186" s="34"/>
+      <c r="J186" s="34"/>
     </row>
     <row r="187" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="26"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="40"/>
-      <c r="F187" s="40"/>
-      <c r="G187" s="40"/>
-      <c r="H187" s="40"/>
-      <c r="I187" s="40"/>
-      <c r="J187" s="40"/>
+      <c r="E187" s="34"/>
+      <c r="F187" s="34"/>
+      <c r="G187" s="34"/>
+      <c r="H187" s="34"/>
+      <c r="I187" s="34"/>
+      <c r="J187" s="34"/>
     </row>
     <row r="188" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="26"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="40"/>
-      <c r="F188" s="40"/>
-      <c r="G188" s="40"/>
-      <c r="H188" s="40"/>
-      <c r="I188" s="40"/>
-      <c r="J188" s="40"/>
+      <c r="E188" s="34"/>
+      <c r="F188" s="34"/>
+      <c r="G188" s="34"/>
+      <c r="H188" s="34"/>
+      <c r="I188" s="34"/>
+      <c r="J188" s="34"/>
     </row>
     <row r="189" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="26"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="40"/>
-      <c r="G189" s="40"/>
-      <c r="H189" s="40"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="40"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="34"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="34"/>
+      <c r="I189" s="34"/>
+      <c r="J189" s="34"/>
     </row>
     <row r="190" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="26"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="40"/>
-      <c r="F190" s="40"/>
-      <c r="G190" s="40"/>
-      <c r="H190" s="40"/>
-      <c r="I190" s="40"/>
-      <c r="J190" s="40"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="34"/>
+      <c r="G190" s="34"/>
+      <c r="H190" s="34"/>
+      <c r="I190" s="34"/>
+      <c r="J190" s="34"/>
     </row>
     <row r="191" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="26"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="40"/>
-      <c r="F191" s="40"/>
-      <c r="G191" s="40"/>
-      <c r="H191" s="40"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="40"/>
+      <c r="E191" s="34"/>
+      <c r="F191" s="34"/>
+      <c r="G191" s="34"/>
+      <c r="H191" s="34"/>
+      <c r="I191" s="34"/>
+      <c r="J191" s="34"/>
     </row>
     <row r="192" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="26"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="40"/>
-      <c r="F192" s="40"/>
-      <c r="G192" s="40"/>
-      <c r="H192" s="40"/>
-      <c r="I192" s="40"/>
-      <c r="J192" s="40"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="34"/>
+      <c r="G192" s="34"/>
+      <c r="H192" s="34"/>
+      <c r="I192" s="34"/>
+      <c r="J192" s="34"/>
     </row>
     <row r="193" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="26"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="40"/>
-      <c r="F193" s="40"/>
-      <c r="G193" s="40"/>
-      <c r="H193" s="40"/>
-      <c r="I193" s="40"/>
-      <c r="J193" s="40"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="34"/>
+      <c r="I193" s="34"/>
+      <c r="J193" s="34"/>
     </row>
     <row r="194" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="26"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="40"/>
-      <c r="F194" s="40"/>
-      <c r="G194" s="40"/>
-      <c r="H194" s="40"/>
-      <c r="I194" s="40"/>
-      <c r="J194" s="40"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="34"/>
+      <c r="G194" s="34"/>
+      <c r="H194" s="34"/>
+      <c r="I194" s="34"/>
+      <c r="J194" s="34"/>
     </row>
     <row r="195" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="26"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="40"/>
-      <c r="F195" s="40"/>
-      <c r="G195" s="40"/>
-      <c r="H195" s="40"/>
-      <c r="I195" s="40"/>
-      <c r="J195" s="40"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="34"/>
+      <c r="G195" s="34"/>
+      <c r="H195" s="34"/>
+      <c r="I195" s="34"/>
+      <c r="J195" s="34"/>
     </row>
     <row r="196" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="26"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="40"/>
-      <c r="F196" s="40"/>
-      <c r="G196" s="40"/>
-      <c r="H196" s="40"/>
-      <c r="I196" s="40"/>
-      <c r="J196" s="40"/>
+      <c r="E196" s="34"/>
+      <c r="F196" s="34"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="34"/>
+      <c r="I196" s="34"/>
+      <c r="J196" s="34"/>
     </row>
     <row r="197" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="26"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="40"/>
-      <c r="F197" s="40"/>
-      <c r="G197" s="40"/>
-      <c r="H197" s="40"/>
-      <c r="I197" s="40"/>
-      <c r="J197" s="40"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+      <c r="I197" s="34"/>
+      <c r="J197" s="34"/>
     </row>
     <row r="198" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="26"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="40"/>
-      <c r="F198" s="40"/>
-      <c r="G198" s="40"/>
-      <c r="H198" s="40"/>
-      <c r="I198" s="40"/>
-      <c r="J198" s="40"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="34"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="34"/>
+      <c r="I198" s="34"/>
+      <c r="J198" s="34"/>
     </row>
     <row r="199" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="26"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="E199" s="40"/>
-      <c r="F199" s="40"/>
-      <c r="G199" s="40"/>
-      <c r="H199" s="40"/>
-      <c r="I199" s="40"/>
-      <c r="J199" s="40"/>
+      <c r="D199" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E199" s="34"/>
+      <c r="F199" s="34"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="34"/>
+      <c r="I199" s="34"/>
+      <c r="J199" s="34"/>
     </row>
     <row r="200" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="26"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="E200" s="40"/>
-      <c r="F200" s="40"/>
-      <c r="G200" s="40"/>
-      <c r="H200" s="40"/>
-      <c r="I200" s="40"/>
-      <c r="J200" s="40"/>
+      <c r="D200" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E200" s="34"/>
+      <c r="F200" s="34"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="34"/>
+      <c r="I200" s="34"/>
+      <c r="J200" s="34"/>
     </row>
     <row r="201" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="26"/>
       <c r="B201" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E201" s="40"/>
-      <c r="F201" s="40"/>
-      <c r="G201" s="40"/>
-      <c r="H201" s="40"/>
-      <c r="I201" s="40"/>
-      <c r="J201" s="40"/>
+        <v>409</v>
+      </c>
+      <c r="E201" s="34"/>
+      <c r="F201" s="34"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="34"/>
+      <c r="I201" s="34"/>
+      <c r="J201" s="34"/>
     </row>
     <row r="202" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="26"/>
       <c r="B202" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="40"/>
-      <c r="F202" s="40"/>
-      <c r="G202" s="40"/>
-      <c r="H202" s="40"/>
-      <c r="I202" s="40"/>
-      <c r="J202" s="40"/>
+      <c r="E202" s="34"/>
+      <c r="F202" s="34"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="34"/>
+      <c r="I202" s="34"/>
+      <c r="J202" s="34"/>
     </row>
     <row r="203" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C203" s="3"/>
       <c r="D203" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E203" s="40"/>
-      <c r="F203" s="40"/>
-      <c r="G203" s="40"/>
-      <c r="H203" s="40"/>
-      <c r="I203" s="40"/>
-      <c r="J203" s="40"/>
+        <v>275</v>
+      </c>
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="34"/>
+      <c r="I203" s="34"/>
+      <c r="J203" s="34"/>
     </row>
     <row r="204" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="26"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="F204" s="40"/>
-      <c r="G204" s="40"/>
-      <c r="H204" s="40"/>
-      <c r="I204" s="40"/>
-      <c r="J204" s="40"/>
+      <c r="E204" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" s="34"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="34"/>
+      <c r="I204" s="34"/>
+      <c r="J204" s="34"/>
     </row>
     <row r="205" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="26"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="F205" s="40"/>
-      <c r="G205" s="40"/>
-      <c r="H205" s="40"/>
-      <c r="I205" s="40"/>
-      <c r="J205" s="40"/>
+      <c r="E205" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="F205" s="34"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="34"/>
+      <c r="I205" s="34"/>
+      <c r="J205" s="34"/>
     </row>
     <row r="206" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="26"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="40"/>
-      <c r="F206" s="40"/>
-      <c r="G206" s="40"/>
-      <c r="H206" s="40"/>
-      <c r="I206" s="40"/>
-      <c r="J206" s="40"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="34"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
+      <c r="I206" s="34"/>
+      <c r="J206" s="34"/>
     </row>
     <row r="207" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="26"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E207" s="40"/>
-      <c r="F207" s="40"/>
-      <c r="G207" s="40"/>
-      <c r="H207" s="40"/>
-      <c r="I207" s="40"/>
-      <c r="J207" s="40"/>
+        <v>276</v>
+      </c>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="34"/>
+      <c r="I207" s="34"/>
+      <c r="J207" s="34"/>
     </row>
     <row r="208" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="26"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="F208" s="40"/>
-      <c r="G208" s="40"/>
-      <c r="H208" s="40"/>
-      <c r="I208" s="40"/>
-      <c r="J208" s="40"/>
+      <c r="E208" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F208" s="34"/>
+      <c r="G208" s="34"/>
+      <c r="H208" s="34"/>
+      <c r="I208" s="34"/>
+      <c r="J208" s="34"/>
     </row>
     <row r="209" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="26"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="F209" s="40"/>
-      <c r="G209" s="40"/>
-      <c r="H209" s="40"/>
-      <c r="I209" s="40"/>
-      <c r="J209" s="40"/>
+      <c r="E209" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="34"/>
+      <c r="I209" s="34"/>
+      <c r="J209" s="34"/>
     </row>
     <row r="210" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="26"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="F210" s="40"/>
-      <c r="G210" s="40"/>
-      <c r="H210" s="40"/>
-      <c r="I210" s="40"/>
-      <c r="J210" s="40"/>
+      <c r="E210" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F210" s="34"/>
+      <c r="G210" s="34"/>
+      <c r="H210" s="34"/>
+      <c r="I210" s="34"/>
+      <c r="J210" s="34"/>
     </row>
     <row r="211" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="25"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="40"/>
-      <c r="F211" s="40"/>
-      <c r="G211" s="40"/>
-      <c r="H211" s="40"/>
-      <c r="I211" s="40"/>
-      <c r="J211" s="40"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="34"/>
+      <c r="I211" s="34"/>
+      <c r="J211" s="34"/>
     </row>
     <row r="212" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="25"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E212" s="40"/>
-      <c r="F212" s="40"/>
-      <c r="G212" s="40"/>
-      <c r="H212" s="40"/>
-      <c r="I212" s="40"/>
-      <c r="J212" s="40"/>
+        <v>278</v>
+      </c>
+      <c r="E212" s="34"/>
+      <c r="F212" s="34"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="34"/>
+      <c r="I212" s="34"/>
+      <c r="J212" s="34"/>
     </row>
     <row r="213" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="25"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="F213" s="40"/>
-      <c r="G213" s="40"/>
-      <c r="H213" s="40"/>
-      <c r="I213" s="40"/>
-      <c r="J213" s="40"/>
+      <c r="E213" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F213" s="34"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="34"/>
+      <c r="I213" s="34"/>
+      <c r="J213" s="34"/>
     </row>
     <row r="214" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="25"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="F214" s="40"/>
-      <c r="G214" s="40"/>
-      <c r="H214" s="40"/>
-      <c r="I214" s="40"/>
-      <c r="J214" s="40"/>
+      <c r="E214" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="F214" s="34"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="34"/>
+      <c r="I214" s="34"/>
+      <c r="J214" s="34"/>
     </row>
     <row r="215" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="25"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="E215" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="F215" s="40"/>
-      <c r="G215" s="40"/>
-      <c r="H215" s="40"/>
-      <c r="I215" s="40"/>
-      <c r="J215" s="40"/>
+      <c r="E215" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="F215" s="34"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="34"/>
+      <c r="I215" s="34"/>
+      <c r="J215" s="34"/>
     </row>
     <row r="216" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="25"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="F216" s="40"/>
-      <c r="G216" s="40"/>
-      <c r="H216" s="40"/>
-      <c r="I216" s="40"/>
-      <c r="J216" s="40"/>
+      <c r="E216" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
+      <c r="I216" s="34"/>
+      <c r="J216" s="34"/>
     </row>
     <row r="217" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="25"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="40"/>
-      <c r="F217" s="40"/>
-      <c r="G217" s="40"/>
-      <c r="H217" s="40"/>
-      <c r="I217" s="40"/>
-      <c r="J217" s="40"/>
+      <c r="E217" s="34"/>
+      <c r="F217" s="34"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="34"/>
+      <c r="I217" s="34"/>
+      <c r="J217" s="34"/>
     </row>
     <row r="218" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="25"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E218" s="40"/>
-      <c r="F218" s="40"/>
-      <c r="G218" s="40"/>
-      <c r="H218" s="40"/>
-      <c r="I218" s="40"/>
-      <c r="J218" s="40"/>
+        <v>282</v>
+      </c>
+      <c r="E218" s="34"/>
+      <c r="F218" s="34"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="34"/>
+      <c r="I218" s="34"/>
+      <c r="J218" s="34"/>
     </row>
     <row r="219" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="25"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
-      <c r="E219" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="F219" s="40"/>
-      <c r="G219" s="40"/>
-      <c r="H219" s="40"/>
-      <c r="I219" s="40"/>
-      <c r="J219" s="40"/>
+      <c r="E219" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F219" s="34"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="34"/>
+      <c r="I219" s="34"/>
+      <c r="J219" s="34"/>
     </row>
     <row r="220" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="25"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
-      <c r="E220" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="F220" s="40"/>
-      <c r="G220" s="40"/>
-      <c r="H220" s="40"/>
-      <c r="I220" s="40"/>
-      <c r="J220" s="40"/>
+      <c r="E220" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F220" s="34"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="34"/>
+      <c r="I220" s="34"/>
+      <c r="J220" s="34"/>
     </row>
     <row r="221" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
-      <c r="E221" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="F221" s="40"/>
-      <c r="G221" s="40"/>
-      <c r="H221" s="40"/>
-      <c r="I221" s="40"/>
-      <c r="J221" s="40"/>
+      <c r="E221" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F221" s="34"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="34"/>
+      <c r="I221" s="34"/>
+      <c r="J221" s="34"/>
     </row>
     <row r="222" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="F222" s="40"/>
-      <c r="G222" s="40"/>
-      <c r="H222" s="40"/>
-      <c r="I222" s="40"/>
-      <c r="J222" s="40"/>
+      <c r="E222" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F222" s="34"/>
+      <c r="G222" s="34"/>
+      <c r="H222" s="34"/>
+      <c r="I222" s="34"/>
+      <c r="J222" s="34"/>
     </row>
     <row r="223" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="25"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
-      <c r="E223" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="F223" s="40"/>
-      <c r="G223" s="40"/>
-      <c r="H223" s="40"/>
-      <c r="I223" s="40"/>
-      <c r="J223" s="40"/>
+      <c r="E223" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="F223" s="34"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="34"/>
+      <c r="I223" s="34"/>
+      <c r="J223" s="34"/>
     </row>
     <row r="224" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="25"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
-      <c r="E224" s="40"/>
-      <c r="F224" s="40"/>
-      <c r="G224" s="40"/>
-      <c r="H224" s="40"/>
-      <c r="I224" s="40"/>
-      <c r="J224" s="40"/>
+      <c r="E224" s="34"/>
+      <c r="F224" s="34"/>
+      <c r="G224" s="34"/>
+      <c r="H224" s="34"/>
+      <c r="I224" s="34"/>
+      <c r="J224" s="34"/>
     </row>
     <row r="225" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="25"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
-      <c r="E225" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="F225" s="40"/>
-      <c r="G225" s="40"/>
-      <c r="H225" s="40"/>
-      <c r="I225" s="40"/>
-      <c r="J225" s="40"/>
+      <c r="E225" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F225" s="34"/>
+      <c r="G225" s="34"/>
+      <c r="H225" s="34"/>
+      <c r="I225" s="34"/>
+      <c r="J225" s="34"/>
     </row>
     <row r="226" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="25"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
-      <c r="E226" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="F226" s="40"/>
-      <c r="G226" s="40"/>
-      <c r="H226" s="40"/>
-      <c r="I226" s="40"/>
-      <c r="J226" s="40"/>
+      <c r="E226" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="F226" s="34"/>
+      <c r="G226" s="34"/>
+      <c r="H226" s="34"/>
+      <c r="I226" s="34"/>
+      <c r="J226" s="34"/>
     </row>
     <row r="227" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="25"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
-      <c r="E227" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="F227" s="40"/>
-      <c r="G227" s="40"/>
-      <c r="H227" s="40"/>
-      <c r="I227" s="40"/>
-      <c r="J227" s="40"/>
+      <c r="E227" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F227" s="34"/>
+      <c r="G227" s="34"/>
+      <c r="H227" s="34"/>
+      <c r="I227" s="34"/>
+      <c r="J227" s="34"/>
     </row>
     <row r="228" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="25"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
-      <c r="E228" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="F228" s="40"/>
-      <c r="G228" s="40"/>
-      <c r="H228" s="40"/>
-      <c r="I228" s="40"/>
-      <c r="J228" s="40"/>
+      <c r="E228" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="F228" s="34"/>
+      <c r="G228" s="34"/>
+      <c r="H228" s="34"/>
+      <c r="I228" s="34"/>
+      <c r="J228" s="34"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B229" s="15"/>
@@ -10012,7 +10041,7 @@
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B230" s="15"/>
       <c r="D230" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E230" s="15"/>
     </row>
@@ -10020,18 +10049,33 @@
       <c r="B231" s="15"/>
       <c r="D231" s="14"/>
       <c r="E231" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B232" s="15"/>
       <c r="D232" s="14"/>
       <c r="E232" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="J119:L119"/>
+    <mergeCell ref="J120:L121"/>
+    <mergeCell ref="J123:L124"/>
+    <mergeCell ref="J125:L127"/>
+    <mergeCell ref="J128:L128"/>
+    <mergeCell ref="J129:L129"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="J130:L130"/>
+    <mergeCell ref="J131:L131"/>
     <mergeCell ref="G132:I132"/>
     <mergeCell ref="G133:I133"/>
     <mergeCell ref="E120:E121"/>
@@ -10046,21 +10090,6 @@
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="G127:I127"/>
     <mergeCell ref="G128:I128"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="J130:L130"/>
-    <mergeCell ref="J131:L131"/>
-    <mergeCell ref="J132:L132"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="J119:L119"/>
-    <mergeCell ref="J120:L121"/>
-    <mergeCell ref="J123:L124"/>
-    <mergeCell ref="J125:L127"/>
-    <mergeCell ref="J128:L128"/>
-    <mergeCell ref="J129:L129"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A156:A172 A204:A221 A63:A64 A223:A1048576 A174:A202 A1:A61 A66:A134">
@@ -10078,14 +10107,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="9" width="9" style="40"/>
+    <col min="5" max="9" width="9" style="34"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -10100,90 +10131,90 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="F8" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="34" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="34" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10193,12 +10224,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="34" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10209,58 +10240,58 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>421</v>
+        <v>376</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="F23" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="40" t="s">
-        <v>422</v>
+      <c r="G23" s="34" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="34" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="34" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="34" t="s">
         <v>93</v>
       </c>
     </row>
@@ -10270,27 +10301,27 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E31" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="34" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -10301,37 +10332,37 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E34" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="34" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="34" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D38" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D39" s="14"/>
       <c r="E39" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E40" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -10340,12 +10371,12 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="34" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="34" t="s">
         <v>98</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -10356,7 +10387,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -10367,7 +10398,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="34" t="s">
         <v>100</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -10378,7 +10409,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="34" t="s">
         <v>101</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -10389,7 +10420,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="34" t="s">
         <v>102</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -10404,17 +10435,17 @@
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10424,12 +10455,12 @@
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10444,49 +10475,49 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="34" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="34" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F65" s="40" t="s">
+      <c r="F65" s="34" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="34" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F67" s="40" t="s">
+      <c r="F67" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="34" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>263</v>
+        <v>386</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -10495,37 +10526,37 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="34" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F73" s="40" t="s">
+      <c r="F73" s="34" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="34" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F75" s="40" t="s">
+      <c r="F75" s="34" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F76" s="40" t="s">
-        <v>264</v>
+      <c r="F76" s="34" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F78" s="40" t="s">
+      <c r="F78" s="34" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10536,54 +10567,54 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="E81" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="E81" s="34" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="F82" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>427</v>
+        <v>361</v>
+      </c>
+      <c r="F83" s="34" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="E84" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E84" s="34" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="34" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="E86" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="F87" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="F87" s="34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10598,32 +10629,32 @@
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F92" s="40" t="s">
+      <c r="F92" s="34" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="34" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F94" s="40" t="s">
+      <c r="F94" s="34" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E95" s="40" t="s">
+      <c r="E95" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F96" s="40" t="s">
+      <c r="F96" s="34" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10634,54 +10665,54 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B99" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="E99" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="E99" s="34" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B100" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F100" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="F100" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B101" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="E102" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="E102" s="34" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F103" s="40" t="s">
+      <c r="F103" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B104" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="E104" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E104" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B105" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="F105" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="F105" s="34" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10697,32 +10728,32 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E109" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E109" s="34" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="E110" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="E110" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F111" s="40" t="s">
+      <c r="F111" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F112" s="40" t="s">
+      <c r="F112" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F113" s="40" t="s">
+      <c r="F113" s="34" t="s">
         <v>156</v>
       </c>
     </row>
@@ -10737,7 +10768,7 @@
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E117" s="40" t="s">
+      <c r="E117" s="34" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10747,7 +10778,7 @@
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E120" s="40" t="s">
+      <c r="E120" s="34" t="s">
         <v>175</v>
       </c>
     </row>
@@ -10757,7 +10788,7 @@
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E123" s="40" t="s">
+      <c r="E123" s="34" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10767,7 +10798,7 @@
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E126" s="40" t="s">
+      <c r="E126" s="34" t="s">
         <v>168</v>
       </c>
     </row>
@@ -10778,25 +10809,25 @@
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="E129" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="E129" s="34" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D131" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E132" s="34" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E132" s="40" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
@@ -10806,9 +10837,9 @@
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="E135" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="E135" s="34" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10818,7 +10849,7 @@
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E138" s="40" t="s">
+      <c r="E138" s="34" t="s">
         <v>171</v>
       </c>
     </row>
@@ -10828,7 +10859,7 @@
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E141" s="40" t="s">
+      <c r="E141" s="34" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10838,7 +10869,7 @@
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E144" s="40" t="s">
+      <c r="E144" s="34" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10864,7 +10895,7 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>176</v>
@@ -10872,31 +10903,31 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E157" s="40" t="s">
-        <v>423</v>
+        <v>349</v>
+      </c>
+      <c r="E157" s="34" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="E158" s="40" t="s">
-        <v>265</v>
+        <v>350</v>
+      </c>
+      <c r="E158" s="34" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="E159" s="40" t="s">
-        <v>395</v>
+        <v>376</v>
+      </c>
+      <c r="E159" s="34" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>177</v>
@@ -10904,31 +10935,31 @@
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E162" s="40" t="s">
-        <v>424</v>
+        <v>349</v>
+      </c>
+      <c r="E162" s="34" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="E163" s="40" t="s">
-        <v>265</v>
+        <v>350</v>
+      </c>
+      <c r="E163" s="34" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="E164" s="40" t="s">
-        <v>266</v>
+        <v>376</v>
+      </c>
+      <c r="E164" s="34" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E165" s="40" t="s">
-        <v>395</v>
+      <c r="E165" s="34" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -11188,7 +11219,7 @@
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C57" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -11205,7 +11236,7 @@
     <row r="58" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -11221,7 +11252,7 @@
     <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C59" s="15"/>
       <c r="D59" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -11237,7 +11268,7 @@
     <row r="60" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C60" s="15"/>
       <c r="D60" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -11252,17 +11283,17 @@
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D62" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D63" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D64" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
@@ -11428,7 +11459,7 @@
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
       <c r="M76" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
